--- a/data/bikes_count.xlsx
+++ b/data/bikes_count.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/teaching/lecture/WiSe_Spezielle_Statistik/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/jkruppa.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BDD89E2-03B4-4846-8F7C-EE6869EEF8F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10C51438-973E-324A-A23C-9ACB2DC3347E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15620" yWindow="3820" windowWidth="22780" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -387,10 +387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I58"/>
+  <dimension ref="A1:I59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" zoomScale="159" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+      <selection activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -445,11 +445,11 @@
         <v>45551</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D58" si="1">A2-DATE(YEAR(A2),1,1)+1</f>
+        <f t="shared" ref="D2:D59" si="1">A2-DATE(YEAR(A2),1,1)+1</f>
         <v>260</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E58" si="2">WEEKNUM(A2)</f>
+        <f t="shared" ref="E2:E59" si="2">WEEKNUM(A2)</f>
         <v>38</v>
       </c>
       <c r="F2">
@@ -2183,16 +2183,47 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
+        <v>45650</v>
+      </c>
+      <c r="B58" s="2">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="C58" s="3">
+        <v>45650</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="1"/>
+        <v>359</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="2"/>
+        <v>52</v>
+      </c>
+      <c r="F58">
+        <v>487</v>
+      </c>
+      <c r="G58">
+        <v>973980</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
         <v>45657</v>
       </c>
-      <c r="C58" s="3">
+      <c r="C59" s="3">
         <v>45657</v>
       </c>
-      <c r="D58">
+      <c r="D59">
         <f t="shared" si="1"/>
         <v>366</v>
       </c>
-      <c r="E58">
+      <c r="E59">
         <f t="shared" si="2"/>
         <v>53</v>
       </c>

--- a/data/bikes_count.xlsx
+++ b/data/bikes_count.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10817"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/jkruppa.github.io/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/teaching/lecture/WiSe_Spezielle_Statistik/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10C51438-973E-324A-A23C-9ACB2DC3347E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D377F84-6BE5-9941-A3C0-86A065F4B08C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15620" yWindow="3820" windowWidth="22780" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4680" yWindow="4940" windowWidth="22780" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t xml:space="preserve">datum </t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>kw</t>
+  </si>
+  <si>
+    <t>jahr</t>
   </si>
 </sst>
 </file>
@@ -387,1845 +390,2105 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I59"/>
+  <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="159" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G60" sqref="G60"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="159" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" customWidth="1"/>
-    <col min="6" max="6" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" customWidth="1"/>
+    <col min="7" max="7" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2024</v>
+      </c>
+      <c r="B2" s="1">
         <v>45551</v>
       </c>
-      <c r="B2" s="2">
+      <c r="C2" s="2">
         <v>0.34652777777777777</v>
       </c>
-      <c r="C2" s="3">
-        <f t="shared" ref="C2:C11" si="0">A2</f>
+      <c r="D2" s="3">
+        <f t="shared" ref="D2:D11" si="0">B2</f>
         <v>45551</v>
       </c>
-      <c r="D2">
-        <f t="shared" ref="D2:D59" si="1">A2-DATE(YEAR(A2),1,1)+1</f>
+      <c r="E2">
+        <f t="shared" ref="E2:E61" si="1">B2-DATE(YEAR(B2),1,1)+1</f>
         <v>260</v>
       </c>
-      <c r="E2">
-        <f t="shared" ref="E2:E59" si="2">WEEKNUM(A2)</f>
+      <c r="F2">
+        <f t="shared" ref="F2:F61" si="2">WEEKNUM(B2)</f>
         <v>38</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>187</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>771920</v>
       </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
       <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2024</v>
+      </c>
+      <c r="B3" s="1">
         <v>45552</v>
       </c>
-      <c r="B3" s="2">
+      <c r="C3" s="2">
         <v>0.34861111111111109</v>
       </c>
-      <c r="C3" s="3">
+      <c r="D3" s="3">
         <f t="shared" si="0"/>
         <v>45552</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <f t="shared" si="1"/>
         <v>261</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <f t="shared" si="2"/>
         <v>38</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>311</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>774630</v>
       </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
       <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2024</v>
+      </c>
+      <c r="B4" s="1">
         <v>45553</v>
       </c>
-      <c r="B4" s="2">
+      <c r="C4" s="2">
         <v>0.34583333333333333</v>
       </c>
-      <c r="C4" s="3">
+      <c r="D4" s="3">
         <f t="shared" si="0"/>
         <v>45553</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <f t="shared" si="1"/>
         <v>262</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <f t="shared" si="2"/>
         <v>38</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>206</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>777100</v>
       </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
       <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2024</v>
+      </c>
+      <c r="B5" s="1">
         <v>45554</v>
       </c>
-      <c r="B5" s="2">
+      <c r="C5" s="2">
         <v>0.34583333333333333</v>
       </c>
-      <c r="C5" s="3">
+      <c r="D5" s="3">
         <f t="shared" si="0"/>
         <v>45554</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <f t="shared" si="1"/>
         <v>263</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <f t="shared" si="2"/>
         <v>38</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>180</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>779552</v>
       </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
       <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2024</v>
+      </c>
+      <c r="B6" s="1">
         <v>45555</v>
       </c>
-      <c r="B6" s="2">
+      <c r="C6" s="2">
         <v>0.34444444444444444</v>
       </c>
-      <c r="C6" s="3">
+      <c r="D6" s="3">
         <f t="shared" si="0"/>
         <v>45555</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <f t="shared" si="1"/>
         <v>264</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <f t="shared" si="2"/>
         <v>38</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>289</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>782117</v>
       </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
       <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2024</v>
+      </c>
+      <c r="B7" s="1">
         <v>45558</v>
       </c>
-      <c r="B7" s="2">
+      <c r="C7" s="2">
         <v>0.34583333333333333</v>
       </c>
-      <c r="C7" s="3">
+      <c r="D7" s="3">
         <f t="shared" si="0"/>
         <v>45558</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <f t="shared" si="1"/>
         <v>267</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <f t="shared" si="2"/>
         <v>39</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>180</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>788818</v>
       </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
       <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2024</v>
+      </c>
+      <c r="B8" s="1">
         <v>45559</v>
       </c>
-      <c r="B8" s="2">
+      <c r="C8" s="2">
         <v>0.82222222222222219</v>
       </c>
-      <c r="C8" s="3">
+      <c r="D8" s="3">
         <f t="shared" si="0"/>
         <v>45559</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <f t="shared" si="1"/>
         <v>268</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <f t="shared" si="2"/>
         <v>39</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>2134</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>792981</v>
       </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
       <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2024</v>
+      </c>
+      <c r="B9" s="1">
         <v>45565</v>
       </c>
-      <c r="B9" s="2">
+      <c r="C9" s="2">
         <v>0.34583333333333333</v>
       </c>
-      <c r="C9" s="3">
+      <c r="D9" s="3">
         <f t="shared" si="0"/>
         <v>45565</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <f t="shared" si="1"/>
         <v>274</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>700</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>803367</v>
       </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
       <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2024</v>
+      </c>
+      <c r="B10" s="1">
         <v>45566</v>
       </c>
-      <c r="B10" s="2">
+      <c r="C10" s="2">
         <v>0.34583333333333333</v>
       </c>
-      <c r="C10" s="3">
+      <c r="D10" s="3">
         <f t="shared" si="0"/>
         <v>45566</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <f t="shared" si="1"/>
         <v>275</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>139</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>805717</v>
       </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
       <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2024</v>
+      </c>
+      <c r="B11" s="1">
         <v>45567</v>
       </c>
-      <c r="B11" s="2">
+      <c r="C11" s="2">
         <v>0.37847222222222221</v>
       </c>
-      <c r="C11" s="3">
+      <c r="D11" s="3">
         <f t="shared" si="0"/>
         <v>45567</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <f t="shared" si="1"/>
         <v>276</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>446</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>807527</v>
       </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
       <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2024</v>
+      </c>
+      <c r="B12" s="1">
         <v>45572</v>
       </c>
-      <c r="B12" s="2">
+      <c r="C12" s="2">
         <v>0.35138888888888886</v>
       </c>
-      <c r="C12" s="3">
+      <c r="D12" s="3">
         <v>45572</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <f t="shared" si="1"/>
         <v>281</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <f t="shared" si="2"/>
         <v>41</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>144</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>816591</v>
       </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
       <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2024</v>
+      </c>
+      <c r="B13" s="1">
         <v>45573</v>
       </c>
-      <c r="B13" s="2">
+      <c r="C13" s="2">
         <v>0.34583333333333333</v>
       </c>
-      <c r="C13" s="3">
+      <c r="D13" s="3">
         <v>45573</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <f t="shared" si="1"/>
         <v>282</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <f t="shared" si="2"/>
         <v>41</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>123</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>818737</v>
       </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
       <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2024</v>
+      </c>
+      <c r="B14" s="1">
         <v>45574</v>
       </c>
-      <c r="B14" s="2">
+      <c r="C14" s="2">
         <v>0.34097222222222223</v>
       </c>
-      <c r="C14" s="3">
+      <c r="D14" s="3">
         <v>45574</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <f t="shared" si="1"/>
         <v>283</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <f t="shared" si="2"/>
         <v>41</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>242</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>820601</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>1</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2024</v>
+      </c>
+      <c r="B15" s="1">
         <v>45575</v>
       </c>
-      <c r="B15" s="2">
+      <c r="C15" s="2">
         <v>0.34722222222222221</v>
       </c>
-      <c r="C15" s="3">
+      <c r="D15" s="3">
         <v>45575</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <f t="shared" si="1"/>
         <v>284</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <f t="shared" si="2"/>
         <v>41</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>259</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>822262</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>1</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2024</v>
+      </c>
+      <c r="B16" s="1">
         <v>45576</v>
       </c>
-      <c r="B16" s="2">
+      <c r="C16" s="2">
         <v>0.34583333333333333</v>
       </c>
-      <c r="C16" s="3">
+      <c r="D16" s="3">
         <v>45576</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <f t="shared" si="1"/>
         <v>285</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <f t="shared" si="2"/>
         <v>41</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>241</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>824183</v>
       </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
       <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2024</v>
+      </c>
+      <c r="B17" s="1">
         <v>45580</v>
       </c>
-      <c r="B17" s="2">
+      <c r="C17" s="2">
         <v>0.34722222222222221</v>
       </c>
-      <c r="C17" s="3">
+      <c r="D17" s="3">
         <v>45580</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <f t="shared" si="1"/>
         <v>289</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <f t="shared" si="2"/>
         <v>42</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>476</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>830875</v>
       </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
       <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2024</v>
+      </c>
+      <c r="B18" s="1">
         <v>45582</v>
       </c>
-      <c r="B18" s="2">
+      <c r="C18" s="2">
         <v>0.34097222222222223</v>
       </c>
-      <c r="C18" s="3">
+      <c r="D18" s="3">
         <v>45582</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <f t="shared" si="1"/>
         <v>291</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <f t="shared" si="2"/>
         <v>42</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>316</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>836296</v>
       </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
       <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2024</v>
+      </c>
+      <c r="B19" s="1">
         <v>45586</v>
       </c>
-      <c r="B19" s="2">
+      <c r="C19" s="2">
         <v>0.34583333333333333</v>
       </c>
-      <c r="C19" s="3">
+      <c r="D19" s="3">
         <v>45586</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <f t="shared" si="1"/>
         <v>295</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <f t="shared" si="2"/>
         <v>43</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>124</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>842875</v>
       </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
       <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>2024</v>
+      </c>
+      <c r="B20" s="1">
         <v>45587</v>
       </c>
-      <c r="B20" s="2">
+      <c r="C20" s="2">
         <v>0.35416666666666669</v>
       </c>
-      <c r="C20" s="3">
+      <c r="D20" s="3">
         <v>45587</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <f t="shared" si="1"/>
         <v>296</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <f t="shared" si="2"/>
         <v>43</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>600</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>845257</v>
       </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
       <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>2024</v>
+      </c>
+      <c r="B21" s="1">
         <v>45588</v>
       </c>
-      <c r="B21" s="2">
+      <c r="C21" s="2">
         <v>0.34861111111111109</v>
       </c>
-      <c r="C21" s="3">
+      <c r="D21" s="3">
         <v>45588</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <f t="shared" si="1"/>
         <v>297</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <f t="shared" si="2"/>
         <v>43</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>204</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>847829</v>
       </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
       <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>2024</v>
+      </c>
+      <c r="B22" s="1">
         <v>45589</v>
       </c>
-      <c r="B22" s="2">
+      <c r="C22" s="2">
         <v>0.36249999999999999</v>
       </c>
-      <c r="C22" s="3">
+      <c r="D22" s="3">
         <v>45589</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <f t="shared" si="1"/>
         <v>298</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <f t="shared" si="2"/>
         <v>43</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>493</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>850522</v>
       </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
       <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>2024</v>
+      </c>
+      <c r="B23" s="1">
         <v>45594</v>
       </c>
-      <c r="B23" s="2">
+      <c r="C23" s="2">
         <v>0.38263888888888886</v>
       </c>
-      <c r="C23" s="3">
+      <c r="D23" s="3">
         <v>45594</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <f t="shared" si="1"/>
         <v>303</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <f t="shared" si="2"/>
         <v>44</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>257</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>860815</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>1</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>2024</v>
+      </c>
+      <c r="B24" s="1">
         <v>45595</v>
       </c>
-      <c r="B24" s="2">
+      <c r="C24" s="2">
         <v>0.35138888888888886</v>
       </c>
-      <c r="C24" s="3">
+      <c r="D24" s="3">
         <v>45595</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <f t="shared" si="1"/>
         <v>304</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <f t="shared" si="2"/>
         <v>44</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>179</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>862835</v>
       </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
       <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>2024</v>
+      </c>
+      <c r="B25" s="1">
         <v>45597</v>
       </c>
-      <c r="B25" s="2">
+      <c r="C25" s="2">
         <v>0.35</v>
       </c>
-      <c r="C25" s="3">
+      <c r="D25" s="3">
         <v>45597</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <f t="shared" si="1"/>
         <v>306</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <f t="shared" si="2"/>
         <v>44</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>115</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>865712</v>
       </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
       <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>2024</v>
+      </c>
+      <c r="B26" s="1">
         <v>45600</v>
       </c>
-      <c r="B26" s="2">
+      <c r="C26" s="2">
         <v>0.35486111111111113</v>
       </c>
-      <c r="C26" s="3">
+      <c r="D26" s="3">
         <v>45600</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <f t="shared" si="1"/>
         <v>309</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <f t="shared" si="2"/>
         <v>45</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>815</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>870928</v>
       </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
       <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>2024</v>
+      </c>
+      <c r="B27" s="1">
         <v>45601</v>
       </c>
-      <c r="B27" s="2">
+      <c r="C27" s="2">
         <v>0.35208333333333336</v>
       </c>
-      <c r="C27" s="3">
+      <c r="D27" s="3">
         <v>45601</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <f t="shared" si="1"/>
         <v>310</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <f t="shared" si="2"/>
         <v>45</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>382</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>874097</v>
       </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
       <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>2024</v>
+      </c>
+      <c r="B28" s="1">
         <v>45602</v>
       </c>
-      <c r="B28" s="2">
+      <c r="C28" s="2">
         <v>0.36805555555555558</v>
       </c>
-      <c r="C28" s="3">
+      <c r="D28" s="3">
         <v>45602</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <f t="shared" si="1"/>
         <v>311</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <f t="shared" si="2"/>
         <v>45</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>876</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>877183</v>
       </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
       <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>2024</v>
+      </c>
+      <c r="B29" s="1">
         <v>45603</v>
       </c>
-      <c r="B29" s="2">
+      <c r="C29" s="2">
         <v>0.35138888888888886</v>
       </c>
-      <c r="C29" s="3">
+      <c r="D29" s="3">
         <v>45603</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <f t="shared" si="1"/>
         <v>312</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <f t="shared" si="2"/>
         <v>45</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>315</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>880089</v>
       </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
       <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>2024</v>
+      </c>
+      <c r="B30" s="1">
         <v>45604</v>
       </c>
-      <c r="B30" s="2">
+      <c r="C30" s="2">
         <v>0.60069444444444442</v>
       </c>
-      <c r="C30" s="3">
+      <c r="D30" s="3">
         <v>45604</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <f t="shared" si="1"/>
         <v>313</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <f t="shared" si="2"/>
         <v>45</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>1321</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>883900</v>
       </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
       <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>2024</v>
+      </c>
+      <c r="B31" s="1">
         <v>45607</v>
       </c>
-      <c r="B31" s="2">
+      <c r="C31" s="2">
         <v>0.34027777777777779</v>
       </c>
-      <c r="C31" s="3">
+      <c r="D31" s="3">
         <v>45607</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <f t="shared" si="1"/>
         <v>316</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <f t="shared" si="2"/>
         <v>46</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>148</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>887709</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>1</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>2024</v>
+      </c>
+      <c r="B32" s="1">
         <v>45608</v>
       </c>
-      <c r="B32" s="2">
+      <c r="C32" s="2">
         <v>0.34652777777777777</v>
       </c>
-      <c r="C32" s="3">
+      <c r="D32" s="3">
         <v>45608</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <f t="shared" si="1"/>
         <v>317</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <f t="shared" si="2"/>
         <v>46</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>171</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>889498</v>
       </c>
-      <c r="H32">
-        <v>0</v>
-      </c>
       <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="1">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>2024</v>
+      </c>
+      <c r="B33" s="1">
         <v>45609</v>
       </c>
-      <c r="B33" s="2">
+      <c r="C33" s="2">
         <v>0.34861111111111109</v>
       </c>
-      <c r="C33" s="3">
+      <c r="D33" s="3">
         <v>45609</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <f t="shared" si="1"/>
         <v>318</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <f t="shared" si="2"/>
         <v>46</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>171</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>891686</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>1</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="1">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>2024</v>
+      </c>
+      <c r="B34" s="1">
         <v>45610</v>
       </c>
-      <c r="B34" s="2">
+      <c r="C34" s="2">
         <v>0.34513888888888888</v>
       </c>
-      <c r="C34" s="3">
-        <f>A34</f>
+      <c r="D34" s="3">
+        <f>B34</f>
         <v>45610</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <f t="shared" si="1"/>
         <v>319</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <f t="shared" si="2"/>
         <v>46</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>207</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>893691</v>
       </c>
-      <c r="H34">
-        <v>0</v>
-      </c>
       <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="1">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>2024</v>
+      </c>
+      <c r="B35" s="1">
         <v>45611</v>
       </c>
-      <c r="B35" s="2">
+      <c r="C35" s="2">
         <v>0.38055555555555554</v>
       </c>
-      <c r="C35" s="3">
+      <c r="D35" s="3">
         <v>45611</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <f t="shared" si="1"/>
         <v>320</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <f t="shared" si="2"/>
         <v>46</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>226</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>896232</v>
       </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
       <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="1">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>2024</v>
+      </c>
+      <c r="B36" s="1">
         <v>45615</v>
       </c>
-      <c r="B36" s="2">
+      <c r="C36" s="2">
         <v>0.35</v>
       </c>
-      <c r="C36" s="3">
+      <c r="D36" s="3">
         <v>45615</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <f t="shared" si="1"/>
         <v>324</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <f t="shared" si="2"/>
         <v>47</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>317</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>903130</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>1</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="1">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>2024</v>
+      </c>
+      <c r="B37" s="1">
         <v>45616</v>
       </c>
-      <c r="B37" s="2">
+      <c r="C37" s="2">
         <v>0.34791666666666665</v>
       </c>
-      <c r="C37" s="3">
+      <c r="D37" s="3">
         <v>45616</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <f t="shared" si="1"/>
         <v>325</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <f t="shared" si="2"/>
         <v>47</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>562</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>905969</v>
       </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
       <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="1">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>2024</v>
+      </c>
+      <c r="B38" s="1">
         <v>45617</v>
       </c>
-      <c r="B38" s="2">
+      <c r="C38" s="2">
         <v>0.35902777777777778</v>
       </c>
-      <c r="C38" s="3">
+      <c r="D38" s="3">
         <v>45617</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <f t="shared" si="1"/>
         <v>326</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <f t="shared" si="2"/>
         <v>47</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>677</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>909047</v>
       </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
       <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="1">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>2024</v>
+      </c>
+      <c r="B39" s="1">
         <v>45618</v>
       </c>
-      <c r="B39" s="2">
+      <c r="C39" s="2">
         <v>0.34861111111111109</v>
       </c>
-      <c r="C39" s="3">
+      <c r="D39" s="3">
         <v>45618</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <f t="shared" si="1"/>
         <v>327</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <f t="shared" si="2"/>
         <v>47</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>573</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <v>912295</v>
       </c>
-      <c r="H39">
-        <v>0</v>
-      </c>
       <c r="I39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="1">
+      <c r="J39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>2024</v>
+      </c>
+      <c r="B40" s="1">
         <v>45621</v>
       </c>
-      <c r="B40" s="2">
+      <c r="C40" s="2">
         <v>0.36249999999999999</v>
       </c>
-      <c r="C40" s="3">
+      <c r="D40" s="3">
         <v>45621</v>
       </c>
-      <c r="D40">
+      <c r="E40">
         <f t="shared" si="1"/>
         <v>330</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <f t="shared" si="2"/>
         <v>48</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>177</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <v>917531</v>
       </c>
-      <c r="H40">
-        <v>0</v>
-      </c>
       <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="1">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>2024</v>
+      </c>
+      <c r="B41" s="1">
         <v>45622</v>
       </c>
-      <c r="B41" s="2">
+      <c r="C41" s="2">
         <v>0.35208333333333336</v>
       </c>
-      <c r="C41" s="3">
+      <c r="D41" s="3">
         <v>45622</v>
       </c>
-      <c r="D41">
+      <c r="E41">
         <f t="shared" si="1"/>
         <v>331</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <f t="shared" si="2"/>
         <v>48</v>
       </c>
-      <c r="F41">
+      <c r="G41">
         <v>189</v>
       </c>
-      <c r="G41">
+      <c r="H41">
         <v>919416</v>
       </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
       <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="1">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>2024</v>
+      </c>
+      <c r="B42" s="1">
         <v>45623</v>
       </c>
-      <c r="B42" s="2">
+      <c r="C42" s="2">
         <v>0.34861111111111109</v>
       </c>
-      <c r="C42" s="3">
+      <c r="D42" s="3">
         <v>45623</v>
       </c>
-      <c r="D42">
+      <c r="E42">
         <f t="shared" si="1"/>
         <v>332</v>
       </c>
-      <c r="E42">
+      <c r="F42">
         <f t="shared" si="2"/>
         <v>48</v>
       </c>
-      <c r="F42">
+      <c r="G42">
         <v>195</v>
       </c>
-      <c r="G42">
+      <c r="H42">
         <v>921711</v>
       </c>
-      <c r="H42">
+      <c r="I42">
         <v>1</v>
       </c>
-      <c r="I42">
+      <c r="J42">
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="1">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>2024</v>
+      </c>
+      <c r="B43" s="1">
         <v>45624</v>
       </c>
-      <c r="B43" s="2">
+      <c r="C43" s="2">
         <v>0.34583333333333333</v>
       </c>
-      <c r="C43" s="3">
+      <c r="D43" s="3">
         <v>45624</v>
       </c>
-      <c r="D43">
+      <c r="E43">
         <f t="shared" si="1"/>
         <v>333</v>
       </c>
-      <c r="E43">
+      <c r="F43">
         <f t="shared" si="2"/>
         <v>48</v>
       </c>
-      <c r="F43">
+      <c r="G43">
         <v>168</v>
       </c>
-      <c r="G43">
+      <c r="H43">
         <v>923527</v>
       </c>
-      <c r="H43">
-        <v>0</v>
-      </c>
       <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="1">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>2024</v>
+      </c>
+      <c r="B44" s="1">
         <v>45625</v>
       </c>
-      <c r="B44" s="2">
+      <c r="C44" s="2">
         <v>0.35625000000000001</v>
       </c>
-      <c r="C44" s="3">
-        <f>A44</f>
+      <c r="D44" s="3">
+        <f>B44</f>
         <v>45625</v>
       </c>
-      <c r="D44">
+      <c r="E44">
         <f t="shared" si="1"/>
         <v>334</v>
       </c>
-      <c r="E44">
+      <c r="F44">
         <f t="shared" si="2"/>
         <v>48</v>
       </c>
-      <c r="F44">
+      <c r="G44">
         <v>200</v>
       </c>
-      <c r="G44">
+      <c r="H44">
         <v>925599</v>
       </c>
-      <c r="H44">
-        <v>0</v>
-      </c>
       <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" s="1">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>2024</v>
+      </c>
+      <c r="B45" s="1">
         <v>45628</v>
       </c>
-      <c r="B45" s="2">
+      <c r="C45" s="2">
         <v>0.3659722222222222</v>
       </c>
-      <c r="C45" s="3">
+      <c r="D45" s="3">
         <v>45628</v>
       </c>
-      <c r="D45">
+      <c r="E45">
         <f t="shared" si="1"/>
         <v>337</v>
       </c>
-      <c r="E45">
+      <c r="F45">
         <f t="shared" si="2"/>
         <v>49</v>
       </c>
-      <c r="F45">
+      <c r="G45">
         <v>404</v>
       </c>
-      <c r="G45">
+      <c r="H45">
         <v>932114</v>
       </c>
-      <c r="H45">
+      <c r="I45">
         <v>1</v>
       </c>
-      <c r="I45">
+      <c r="J45">
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" s="1">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>2024</v>
+      </c>
+      <c r="B46" s="1">
         <v>45629</v>
       </c>
-      <c r="B46" s="2">
+      <c r="C46" s="2">
         <v>0.35416666666666669</v>
       </c>
-      <c r="C46" s="3">
+      <c r="D46" s="3">
         <v>45629</v>
       </c>
-      <c r="D46">
+      <c r="E46">
         <f t="shared" si="1"/>
         <v>338</v>
       </c>
-      <c r="E46">
+      <c r="F46">
         <f t="shared" si="2"/>
         <v>49</v>
       </c>
-      <c r="F46">
+      <c r="G46">
         <v>182</v>
       </c>
-      <c r="G46">
+      <c r="H46">
         <v>934606</v>
       </c>
-      <c r="H46">
+      <c r="I46">
         <v>1</v>
       </c>
-      <c r="I46">
+      <c r="J46">
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" s="1">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>2024</v>
+      </c>
+      <c r="B47" s="1">
         <v>45630</v>
       </c>
-      <c r="B47" s="2">
+      <c r="C47" s="2">
         <v>0.35694444444444445</v>
       </c>
-      <c r="C47" s="3">
+      <c r="D47" s="3">
         <v>45630</v>
       </c>
-      <c r="D47">
+      <c r="E47">
         <f t="shared" si="1"/>
         <v>339</v>
       </c>
-      <c r="E47">
+      <c r="F47">
         <f t="shared" si="2"/>
         <v>49</v>
       </c>
-      <c r="F47">
+      <c r="G47">
         <v>195</v>
       </c>
-      <c r="G47">
+      <c r="H47">
         <v>936768</v>
       </c>
-      <c r="H47">
-        <v>0</v>
-      </c>
       <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="1">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>2024</v>
+      </c>
+      <c r="B48" s="1">
         <v>45631</v>
       </c>
-      <c r="B48" s="2">
+      <c r="C48" s="2">
         <v>0.34652777777777777</v>
       </c>
-      <c r="C48" s="3">
+      <c r="D48" s="3">
         <v>45631</v>
       </c>
-      <c r="D48">
+      <c r="E48">
         <f t="shared" si="1"/>
         <v>340</v>
       </c>
-      <c r="E48">
+      <c r="F48">
         <f t="shared" si="2"/>
         <v>49</v>
       </c>
-      <c r="F48">
+      <c r="G48">
         <v>267</v>
       </c>
-      <c r="G48">
+      <c r="H48">
         <v>939079</v>
       </c>
-      <c r="H48">
-        <v>0</v>
-      </c>
       <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="1">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>2024</v>
+      </c>
+      <c r="B49" s="1">
         <v>45632</v>
       </c>
-      <c r="B49" s="2">
+      <c r="C49" s="2">
         <v>0.57291666666666663</v>
       </c>
-      <c r="C49" s="3">
+      <c r="D49" s="3">
         <v>45632</v>
       </c>
-      <c r="D49">
+      <c r="E49">
         <f t="shared" si="1"/>
         <v>341</v>
       </c>
-      <c r="E49">
+      <c r="F49">
         <f t="shared" si="2"/>
         <v>49</v>
       </c>
-      <c r="F49">
+      <c r="G49">
         <v>492</v>
       </c>
-      <c r="G49">
+      <c r="H49">
         <v>941420</v>
       </c>
-      <c r="H49">
+      <c r="I49">
         <v>1</v>
       </c>
-      <c r="I49">
+      <c r="J49">
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" s="1">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>2024</v>
+      </c>
+      <c r="B50" s="1">
         <v>45635</v>
       </c>
-      <c r="B50" s="2">
+      <c r="C50" s="2">
         <v>0.375</v>
       </c>
-      <c r="C50" s="3">
+      <c r="D50" s="3">
         <v>45635</v>
       </c>
-      <c r="D50">
+      <c r="E50">
         <f t="shared" si="1"/>
         <v>344</v>
       </c>
-      <c r="E50">
+      <c r="F50">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="F50">
+      <c r="G50">
         <v>179</v>
       </c>
-      <c r="G50">
+      <c r="H50">
         <v>944268</v>
       </c>
-      <c r="H50">
+      <c r="I50">
         <v>1</v>
       </c>
-      <c r="I50">
+      <c r="J50">
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51" s="1">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>2024</v>
+      </c>
+      <c r="B51" s="1">
         <v>45636</v>
       </c>
-      <c r="B51" s="2">
+      <c r="C51" s="2">
         <v>0.35208333333333336</v>
       </c>
-      <c r="C51" s="3">
+      <c r="D51" s="3">
         <v>45636</v>
       </c>
-      <c r="D51">
+      <c r="E51">
         <f t="shared" si="1"/>
         <v>345</v>
       </c>
-      <c r="E51">
+      <c r="F51">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="F51">
+      <c r="G51">
         <v>172</v>
       </c>
-      <c r="G51">
+      <c r="H51">
         <v>946099</v>
       </c>
-      <c r="H51">
-        <v>0</v>
-      </c>
       <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" s="1">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>2024</v>
+      </c>
+      <c r="B52" s="1">
         <v>45638</v>
       </c>
-      <c r="B52" s="2">
+      <c r="C52" s="2">
         <v>0.36805555555555558</v>
       </c>
-      <c r="C52" s="3">
+      <c r="D52" s="3">
         <v>45638</v>
       </c>
-      <c r="D52">
+      <c r="E52">
         <f t="shared" si="1"/>
         <v>347</v>
       </c>
-      <c r="E52">
+      <c r="F52">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="F52">
+      <c r="G52">
         <v>313</v>
       </c>
-      <c r="G52">
+      <c r="H52">
         <v>950573</v>
       </c>
-      <c r="H52">
+      <c r="I52">
         <v>1</v>
       </c>
-      <c r="I52">
+      <c r="J52">
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53" s="1">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>2024</v>
+      </c>
+      <c r="B53" s="1">
         <v>45639</v>
       </c>
-      <c r="B53" s="2">
+      <c r="C53" s="2">
         <v>0.37430555555555556</v>
       </c>
-      <c r="C53" s="3">
+      <c r="D53" s="3">
         <v>45639</v>
       </c>
-      <c r="D53">
+      <c r="E53">
         <f t="shared" si="1"/>
         <v>348</v>
       </c>
-      <c r="E53">
+      <c r="F53">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="F53">
+      <c r="G53">
         <v>241</v>
       </c>
-      <c r="G53">
+      <c r="H53">
         <v>952659</v>
       </c>
-      <c r="H53">
-        <v>0</v>
-      </c>
       <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" s="1">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>2024</v>
+      </c>
+      <c r="B54" s="1">
         <v>45642</v>
       </c>
-      <c r="B54" s="2">
+      <c r="C54" s="2">
         <v>0.39027777777777778</v>
       </c>
-      <c r="C54" s="3">
+      <c r="D54" s="3">
         <v>45642</v>
       </c>
-      <c r="D54">
+      <c r="E54">
         <f t="shared" si="1"/>
         <v>351</v>
       </c>
-      <c r="E54">
+      <c r="F54">
         <f t="shared" si="2"/>
         <v>51</v>
       </c>
-      <c r="F54">
+      <c r="G54">
         <v>535</v>
       </c>
-      <c r="G54">
+      <c r="H54">
         <v>958524</v>
       </c>
-      <c r="H54">
+      <c r="I54">
         <v>1</v>
       </c>
-      <c r="I54">
+      <c r="J54">
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" s="1">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>2024</v>
+      </c>
+      <c r="B55" s="1">
         <v>45644</v>
       </c>
-      <c r="B55" s="2">
+      <c r="C55" s="2">
         <v>0.35555555555555557</v>
       </c>
-      <c r="C55" s="3">
+      <c r="D55" s="3">
         <v>45644</v>
       </c>
-      <c r="D55">
+      <c r="E55">
         <f t="shared" si="1"/>
         <v>353</v>
       </c>
-      <c r="E55">
+      <c r="F55">
         <f t="shared" si="2"/>
         <v>51</v>
       </c>
-      <c r="F55">
+      <c r="G55">
         <v>199</v>
       </c>
-      <c r="G55">
+      <c r="H55">
         <v>962841</v>
       </c>
-      <c r="H55">
-        <v>0</v>
-      </c>
       <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" s="1">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>2024</v>
+      </c>
+      <c r="B56" s="1">
         <v>45645</v>
       </c>
-      <c r="B56" s="2">
+      <c r="C56" s="2">
         <v>0.34722222222222221</v>
       </c>
-      <c r="C56" s="3">
+      <c r="D56" s="3">
         <v>45645</v>
       </c>
-      <c r="D56">
+      <c r="E56">
         <f t="shared" si="1"/>
         <v>354</v>
       </c>
-      <c r="E56">
+      <c r="F56">
         <f t="shared" si="2"/>
         <v>51</v>
       </c>
-      <c r="F56">
+      <c r="G56">
         <v>171</v>
       </c>
-      <c r="G56">
+      <c r="H56">
         <v>965394</v>
       </c>
-      <c r="H56">
-        <v>0</v>
-      </c>
       <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" s="1">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>2024</v>
+      </c>
+      <c r="B57" s="1">
         <v>45646</v>
       </c>
-      <c r="B57" s="2">
+      <c r="C57" s="2">
         <v>0.35069444444444442</v>
       </c>
-      <c r="C57" s="3">
+      <c r="D57" s="3">
         <v>45646</v>
       </c>
-      <c r="D57">
+      <c r="E57">
         <f t="shared" si="1"/>
         <v>355</v>
       </c>
-      <c r="E57">
+      <c r="F57">
         <f t="shared" si="2"/>
         <v>51</v>
       </c>
-      <c r="F57">
+      <c r="G57">
         <v>357</v>
       </c>
-      <c r="G57">
+      <c r="H57">
         <v>967740</v>
       </c>
-      <c r="H57">
-        <v>0</v>
-      </c>
       <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58" s="1">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>2024</v>
+      </c>
+      <c r="B58" s="1">
         <v>45650</v>
       </c>
-      <c r="B58" s="2">
+      <c r="C58" s="2">
         <v>0.6333333333333333</v>
       </c>
-      <c r="C58" s="3">
+      <c r="D58" s="3">
         <v>45650</v>
       </c>
-      <c r="D58">
+      <c r="E58">
         <f t="shared" si="1"/>
         <v>359</v>
       </c>
-      <c r="E58">
+      <c r="F58">
         <f t="shared" si="2"/>
         <v>52</v>
       </c>
-      <c r="F58">
+      <c r="G58">
         <v>487</v>
       </c>
-      <c r="G58">
-        <v>973980</v>
-      </c>
       <c r="H58">
-        <v>0</v>
+        <v>973960</v>
       </c>
       <c r="I58">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59" s="1">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>2024</v>
+      </c>
+      <c r="B59" s="1">
         <v>45657</v>
       </c>
-      <c r="C59" s="3">
+      <c r="C59" s="2">
+        <v>0.62847222222222221</v>
+      </c>
+      <c r="D59" s="3">
         <v>45657</v>
       </c>
-      <c r="D59">
+      <c r="E59">
         <f t="shared" si="1"/>
         <v>366</v>
       </c>
-      <c r="E59">
+      <c r="F59">
         <f t="shared" si="2"/>
         <v>53</v>
+      </c>
+      <c r="G59">
+        <v>509</v>
+      </c>
+      <c r="H59">
+        <v>978970</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>2025</v>
+      </c>
+      <c r="B60" s="1">
+        <v>45888</v>
+      </c>
+      <c r="C60" s="2">
+        <v>0.34513888888888888</v>
+      </c>
+      <c r="D60" s="3">
+        <v>45888</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="1"/>
+        <v>231</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="G60">
+        <v>848</v>
+      </c>
+      <c r="H60">
+        <v>802078</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>2025</v>
+      </c>
+      <c r="B61" s="1">
+        <v>45896</v>
+      </c>
+      <c r="C61" s="2">
+        <v>0.34375</v>
+      </c>
+      <c r="D61" s="3">
+        <v>45896</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="1"/>
+        <v>239</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="G61">
+        <v>790</v>
+      </c>
+      <c r="H61">
+        <v>839729</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/data/bikes_count.xlsx
+++ b/data/bikes_count.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/teaching/lecture/WiSe_Spezielle_Statistik/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/jkruppa.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D377F84-6BE5-9941-A3C0-86A065F4B08C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3337798E-33FF-3146-89DC-7D6F848D1BAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4680" yWindow="4940" windowWidth="22780" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -390,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J61"/>
+  <dimension ref="A1:J62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="159" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62"/>
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="159" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -454,11 +454,11 @@
         <v>45551</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E61" si="1">B2-DATE(YEAR(B2),1,1)+1</f>
+        <f t="shared" ref="E2:E62" si="1">B2-DATE(YEAR(B2),1,1)+1</f>
         <v>260</v>
       </c>
       <c r="F2">
-        <f t="shared" ref="F2:F61" si="2">WEEKNUM(B2)</f>
+        <f t="shared" ref="F2:F62" si="2">WEEKNUM(B2)</f>
         <v>38</v>
       </c>
       <c r="G2">
@@ -2489,6 +2489,40 @@
       </c>
       <c r="J61">
         <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>2025</v>
+      </c>
+      <c r="B62" s="1">
+        <v>45897</v>
+      </c>
+      <c r="C62" s="2">
+        <v>0.32847222222222222</v>
+      </c>
+      <c r="D62" s="3">
+        <v>45897</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="1"/>
+        <v>240</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="G62">
+        <v>577</v>
+      </c>
+      <c r="H62">
+        <v>844782</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/data/bikes_count.xlsx
+++ b/data/bikes_count.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/jkruppa.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3337798E-33FF-3146-89DC-7D6F848D1BAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D4C00CB-F997-7740-BBE4-6193A41CDBF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4680" yWindow="4940" windowWidth="22780" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -390,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J62"/>
+  <dimension ref="A1:J63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="159" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D66" sqref="D66"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="159" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="J64" sqref="J64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -454,11 +454,11 @@
         <v>45551</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E62" si="1">B2-DATE(YEAR(B2),1,1)+1</f>
+        <f t="shared" ref="E2:E63" si="1">B2-DATE(YEAR(B2),1,1)+1</f>
         <v>260</v>
       </c>
       <c r="F2">
-        <f t="shared" ref="F2:F62" si="2">WEEKNUM(B2)</f>
+        <f t="shared" ref="F2:F63" si="2">WEEKNUM(B2)</f>
         <v>38</v>
       </c>
       <c r="G2">
@@ -2523,6 +2523,40 @@
       </c>
       <c r="J62">
         <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>2025</v>
+      </c>
+      <c r="B63" s="1">
+        <v>45898</v>
+      </c>
+      <c r="C63" s="2">
+        <v>0.33888888888888891</v>
+      </c>
+      <c r="D63" s="3">
+        <v>45898</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="1"/>
+        <v>241</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="G63">
+        <v>666</v>
+      </c>
+      <c r="H63">
+        <v>849745</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/data/bikes_count.xlsx
+++ b/data/bikes_count.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/jkruppa.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D4C00CB-F997-7740-BBE4-6193A41CDBF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94E828E4-A574-BB40-B315-2D10EC64031F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="4940" windowWidth="22780" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4680" yWindow="4920" windowWidth="22780" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -390,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J63"/>
+  <dimension ref="A1:J64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" zoomScale="159" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="J64" sqref="J64"/>
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -454,11 +454,11 @@
         <v>45551</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E63" si="1">B2-DATE(YEAR(B2),1,1)+1</f>
+        <f t="shared" ref="E2:E64" si="1">B2-DATE(YEAR(B2),1,1)+1</f>
         <v>260</v>
       </c>
       <c r="F2">
-        <f t="shared" ref="F2:F63" si="2">WEEKNUM(B2)</f>
+        <f t="shared" ref="F2:F64" si="2">WEEKNUM(B2)</f>
         <v>38</v>
       </c>
       <c r="G2">
@@ -2557,6 +2557,40 @@
       </c>
       <c r="J63">
         <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>2025</v>
+      </c>
+      <c r="B64" s="1">
+        <v>45904</v>
+      </c>
+      <c r="C64" s="2">
+        <v>0.36180555555555555</v>
+      </c>
+      <c r="D64" s="3">
+        <v>45904</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="1"/>
+        <v>247</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="G64">
+        <v>952</v>
+      </c>
+      <c r="H64">
+        <v>880771</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/data/bikes_count.xlsx
+++ b/data/bikes_count.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/jkruppa.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94E828E4-A574-BB40-B315-2D10EC64031F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35173FCE-E175-8F40-A9D7-D5B1684A21D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="4920" windowWidth="22780" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2680" yWindow="5200" windowWidth="22780" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -390,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J64"/>
+  <dimension ref="A1:J65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="159" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="159" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="J66" sqref="J66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -454,11 +454,11 @@
         <v>45551</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E64" si="1">B2-DATE(YEAR(B2),1,1)+1</f>
+        <f t="shared" ref="E2:E65" si="1">B2-DATE(YEAR(B2),1,1)+1</f>
         <v>260</v>
       </c>
       <c r="F2">
-        <f t="shared" ref="F2:F64" si="2">WEEKNUM(B2)</f>
+        <f t="shared" ref="F2:F65" si="2">WEEKNUM(B2)</f>
         <v>38</v>
       </c>
       <c r="G2">
@@ -2591,6 +2591,40 @@
       </c>
       <c r="J64">
         <v>18</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>2025</v>
+      </c>
+      <c r="B65" s="1">
+        <v>45909</v>
+      </c>
+      <c r="C65" s="2">
+        <v>0.34791666666666665</v>
+      </c>
+      <c r="D65" s="3">
+        <v>45909</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="1"/>
+        <v>252</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="G65">
+        <v>676</v>
+      </c>
+      <c r="H65">
+        <v>901943</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/data/bikes_count.xlsx
+++ b/data/bikes_count.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10817"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10905"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/jkruppa.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35173FCE-E175-8F40-A9D7-D5B1684A21D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9951B130-FE20-AE4F-B00D-AA7F83A68E11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2680" yWindow="5200" windowWidth="22780" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -390,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J65"/>
+  <dimension ref="A1:J66"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A50" zoomScale="159" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="J66" sqref="J66"/>
+      <selection activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -454,11 +454,11 @@
         <v>45551</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E65" si="1">B2-DATE(YEAR(B2),1,1)+1</f>
+        <f t="shared" ref="E2:E66" si="1">B2-DATE(YEAR(B2),1,1)+1</f>
         <v>260</v>
       </c>
       <c r="F2">
-        <f t="shared" ref="F2:F65" si="2">WEEKNUM(B2)</f>
+        <f t="shared" ref="F2:F66" si="2">WEEKNUM(B2)</f>
         <v>38</v>
       </c>
       <c r="G2">
@@ -2625,6 +2625,40 @@
       </c>
       <c r="J65">
         <v>16</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>2025</v>
+      </c>
+      <c r="B66" s="1">
+        <v>45916</v>
+      </c>
+      <c r="C66" s="2">
+        <v>0.37222222222222223</v>
+      </c>
+      <c r="D66" s="3">
+        <v>45916</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="1"/>
+        <v>259</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="G66">
+        <v>735</v>
+      </c>
+      <c r="H66">
+        <v>929362</v>
+      </c>
+      <c r="I66">
+        <v>1</v>
+      </c>
+      <c r="J66">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/data/bikes_count.xlsx
+++ b/data/bikes_count.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10905"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10913"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/jkruppa.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9951B130-FE20-AE4F-B00D-AA7F83A68E11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F27254F3-A376-9A45-AD7B-6BCD16DEC64C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2680" yWindow="5200" windowWidth="22780" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -390,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J66"/>
+  <dimension ref="A1:J67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="159" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F57" sqref="F57"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="159" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="J68" sqref="J68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -454,11 +454,11 @@
         <v>45551</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E66" si="1">B2-DATE(YEAR(B2),1,1)+1</f>
+        <f t="shared" ref="E2:E67" si="1">B2-DATE(YEAR(B2),1,1)+1</f>
         <v>260</v>
       </c>
       <c r="F2">
-        <f t="shared" ref="F2:F66" si="2">WEEKNUM(B2)</f>
+        <f t="shared" ref="F2:F67" si="2">WEEKNUM(B2)</f>
         <v>38</v>
       </c>
       <c r="G2">
@@ -2659,6 +2659,40 @@
       </c>
       <c r="J66">
         <v>13</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>2025</v>
+      </c>
+      <c r="B67" s="1">
+        <v>45918</v>
+      </c>
+      <c r="C67" s="2">
+        <v>0.34166666666666667</v>
+      </c>
+      <c r="D67" s="3">
+        <v>45918</v>
+      </c>
+      <c r="E67">
+        <f t="shared" si="1"/>
+        <v>261</v>
+      </c>
+      <c r="F67">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="G67">
+        <v>689</v>
+      </c>
+      <c r="H67">
+        <v>937231</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/data/bikes_count.xlsx
+++ b/data/bikes_count.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/jkruppa.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F27254F3-A376-9A45-AD7B-6BCD16DEC64C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1005F0A7-83C2-7246-8EC7-0FE333757EC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2680" yWindow="5200" windowWidth="22780" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -390,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J67"/>
+  <dimension ref="A1:J68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" zoomScale="159" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="J68" sqref="J68"/>
+      <selection activeCell="J69" sqref="J69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -454,11 +454,11 @@
         <v>45551</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E67" si="1">B2-DATE(YEAR(B2),1,1)+1</f>
+        <f t="shared" ref="E2:E68" si="1">B2-DATE(YEAR(B2),1,1)+1</f>
         <v>260</v>
       </c>
       <c r="F2">
-        <f t="shared" ref="F2:F67" si="2">WEEKNUM(B2)</f>
+        <f t="shared" ref="F2:F68" si="2">WEEKNUM(B2)</f>
         <v>38</v>
       </c>
       <c r="G2">
@@ -2693,6 +2693,40 @@
       </c>
       <c r="J67">
         <v>14</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>2025</v>
+      </c>
+      <c r="B68" s="1">
+        <v>45922</v>
+      </c>
+      <c r="C68" s="2">
+        <v>0.35138888888888886</v>
+      </c>
+      <c r="D68" s="3">
+        <v>45922</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="1"/>
+        <v>265</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="G68">
+        <v>746</v>
+      </c>
+      <c r="H68">
+        <v>953271</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/data/bikes_count.xlsx
+++ b/data/bikes_count.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/jkruppa.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1005F0A7-83C2-7246-8EC7-0FE333757EC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74CD7A4E-7EB0-344C-96DC-65ECB8205517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2680" yWindow="5200" windowWidth="22780" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -390,9 +390,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J68"/>
+  <dimension ref="A1:J70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="159" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="159" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="J69" sqref="J69"/>
     </sheetView>
   </sheetViews>
@@ -454,11 +454,11 @@
         <v>45551</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E68" si="1">B2-DATE(YEAR(B2),1,1)+1</f>
+        <f t="shared" ref="E2:E70" si="1">B2-DATE(YEAR(B2),1,1)+1</f>
         <v>260</v>
       </c>
       <c r="F2">
-        <f t="shared" ref="F2:F68" si="2">WEEKNUM(B2)</f>
+        <f t="shared" ref="F2:F70" si="2">WEEKNUM(B2)</f>
         <v>38</v>
       </c>
       <c r="G2">
@@ -2726,6 +2726,74 @@
         <v>0</v>
       </c>
       <c r="J68">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>2025</v>
+      </c>
+      <c r="B69" s="1">
+        <v>45923</v>
+      </c>
+      <c r="C69" s="2">
+        <v>0.34375</v>
+      </c>
+      <c r="D69" s="3">
+        <v>45923</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="1"/>
+        <v>266</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="G69">
+        <v>745</v>
+      </c>
+      <c r="H69">
+        <v>957023</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>2025</v>
+      </c>
+      <c r="B70" s="1">
+        <v>45924</v>
+      </c>
+      <c r="C70" s="2">
+        <v>0.34166666666666667</v>
+      </c>
+      <c r="D70" s="3">
+        <v>45924</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="1"/>
+        <v>267</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="G70">
+        <v>691</v>
+      </c>
+      <c r="H70">
+        <v>962686</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
         <v>6</v>
       </c>
     </row>

--- a/data/bikes_count.xlsx
+++ b/data/bikes_count.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/jkruppa.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74CD7A4E-7EB0-344C-96DC-65ECB8205517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B47D915-7C92-6F4A-9304-5A7FCA9FDDF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2680" yWindow="5200" windowWidth="22780" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -390,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J70"/>
+  <dimension ref="A1:J71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="159" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="J69" sqref="J69"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="159" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -454,11 +454,11 @@
         <v>45551</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E70" si="1">B2-DATE(YEAR(B2),1,1)+1</f>
+        <f t="shared" ref="E2:E71" si="1">B2-DATE(YEAR(B2),1,1)+1</f>
         <v>260</v>
       </c>
       <c r="F2">
-        <f t="shared" ref="F2:F70" si="2">WEEKNUM(B2)</f>
+        <f t="shared" ref="F2:F71" si="2">WEEKNUM(B2)</f>
         <v>38</v>
       </c>
       <c r="G2">
@@ -2795,6 +2795,40 @@
       </c>
       <c r="J70">
         <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>2025</v>
+      </c>
+      <c r="B71" s="1">
+        <v>45926</v>
+      </c>
+      <c r="C71" s="2">
+        <v>0.35555555555555557</v>
+      </c>
+      <c r="D71" s="3">
+        <v>45926</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="1"/>
+        <v>269</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="G71">
+        <v>670</v>
+      </c>
+      <c r="H71">
+        <v>972052</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/data/bikes_count.xlsx
+++ b/data/bikes_count.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10921"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/jkruppa.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B47D915-7C92-6F4A-9304-5A7FCA9FDDF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94EBED70-96B3-4A4B-BD5A-B4223C5E72E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2680" yWindow="5200" windowWidth="22780" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -390,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J71"/>
+  <dimension ref="A1:J72"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" zoomScale="159" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C71" sqref="C71"/>
+      <selection activeCell="J73" sqref="J73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -454,11 +454,11 @@
         <v>45551</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E71" si="1">B2-DATE(YEAR(B2),1,1)+1</f>
+        <f t="shared" ref="E2:E72" si="1">B2-DATE(YEAR(B2),1,1)+1</f>
         <v>260</v>
       </c>
       <c r="F2">
-        <f t="shared" ref="F2:F71" si="2">WEEKNUM(B2)</f>
+        <f t="shared" ref="F2:F72" si="2">WEEKNUM(B2)</f>
         <v>38</v>
       </c>
       <c r="G2">
@@ -2829,6 +2829,40 @@
       </c>
       <c r="J71">
         <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>2025</v>
+      </c>
+      <c r="B72" s="1">
+        <v>45929</v>
+      </c>
+      <c r="C72" s="2">
+        <v>0.34513888888888888</v>
+      </c>
+      <c r="D72" s="3">
+        <v>45929</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="1"/>
+        <v>272</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="G72">
+        <v>676</v>
+      </c>
+      <c r="H72">
+        <v>982097</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/data/bikes_count.xlsx
+++ b/data/bikes_count.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10921"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/jkruppa.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94EBED70-96B3-4A4B-BD5A-B4223C5E72E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3FF5C13-B2E3-C540-AC38-C26646C5B385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2680" yWindow="5200" windowWidth="22780" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -390,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J72"/>
+  <dimension ref="A1:J74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="159" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="J73" sqref="J73"/>
+    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="159" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F73" sqref="F73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -454,11 +454,11 @@
         <v>45551</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E72" si="1">B2-DATE(YEAR(B2),1,1)+1</f>
+        <f t="shared" ref="E2:E74" si="1">B2-DATE(YEAR(B2),1,1)+1</f>
         <v>260</v>
       </c>
       <c r="F2">
-        <f t="shared" ref="F2:F72" si="2">WEEKNUM(B2)</f>
+        <f t="shared" ref="F2:F74" si="2">WEEKNUM(B2)</f>
         <v>38</v>
       </c>
       <c r="G2">
@@ -2863,6 +2863,74 @@
       </c>
       <c r="J72">
         <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>2025</v>
+      </c>
+      <c r="B73" s="1">
+        <v>45931</v>
+      </c>
+      <c r="C73" s="2">
+        <v>0.34513888888888888</v>
+      </c>
+      <c r="D73" s="3">
+        <v>45931</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="1"/>
+        <v>274</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="G73">
+        <v>684</v>
+      </c>
+      <c r="H73">
+        <v>991639</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>2025</v>
+      </c>
+      <c r="B74" s="1">
+        <v>45932</v>
+      </c>
+      <c r="C74" s="2">
+        <v>0.34930555555555554</v>
+      </c>
+      <c r="D74" s="3">
+        <v>45932</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="1"/>
+        <v>275</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="G74">
+        <v>686</v>
+      </c>
+      <c r="H74">
+        <v>996765</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/data/bikes_count.xlsx
+++ b/data/bikes_count.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11003"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/jkruppa.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3FF5C13-B2E3-C540-AC38-C26646C5B385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30A2589B-E016-A642-A5B3-AAC2616E2E9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2680" yWindow="5200" windowWidth="22780" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -390,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J74"/>
+  <dimension ref="A1:J75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A60" zoomScale="159" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F73" sqref="F73"/>
+      <selection activeCell="J75" sqref="J75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -454,11 +454,11 @@
         <v>45551</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E74" si="1">B2-DATE(YEAR(B2),1,1)+1</f>
+        <f t="shared" ref="E2:E75" si="1">B2-DATE(YEAR(B2),1,1)+1</f>
         <v>260</v>
       </c>
       <c r="F2">
-        <f t="shared" ref="F2:F74" si="2">WEEKNUM(B2)</f>
+        <f t="shared" ref="F2:F75" si="2">WEEKNUM(B2)</f>
         <v>38</v>
       </c>
       <c r="G2">
@@ -2931,6 +2931,40 @@
       </c>
       <c r="J74">
         <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>2025</v>
+      </c>
+      <c r="B75" s="1">
+        <v>45937</v>
+      </c>
+      <c r="C75" s="2">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="D75" s="3">
+        <v>45937</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="1"/>
+        <v>280</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
+      <c r="G75">
+        <v>623</v>
+      </c>
+      <c r="H75">
+        <v>1010267</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/data/bikes_count.xlsx
+++ b/data/bikes_count.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/jkruppa.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30A2589B-E016-A642-A5B3-AAC2616E2E9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1CCDFBF-BE83-F449-A7EF-C96816B44003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2680" yWindow="5200" windowWidth="22780" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1300" yWindow="4060" windowWidth="22780" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -390,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J75"/>
+  <dimension ref="A1:J76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="159" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="J75" sqref="J75"/>
+    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="159" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="J77" sqref="J77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -454,11 +454,11 @@
         <v>45551</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E75" si="1">B2-DATE(YEAR(B2),1,1)+1</f>
+        <f t="shared" ref="E2:E76" si="1">B2-DATE(YEAR(B2),1,1)+1</f>
         <v>260</v>
       </c>
       <c r="F2">
-        <f t="shared" ref="F2:F75" si="2">WEEKNUM(B2)</f>
+        <f t="shared" ref="F2:F76" si="2">WEEKNUM(B2)</f>
         <v>38</v>
       </c>
       <c r="G2">
@@ -2965,6 +2965,40 @@
       </c>
       <c r="J75">
         <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>2025</v>
+      </c>
+      <c r="B76" s="1">
+        <v>45940</v>
+      </c>
+      <c r="C76" s="2">
+        <v>0.35208333333333336</v>
+      </c>
+      <c r="D76" s="3">
+        <v>45940</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="1"/>
+        <v>283</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
+      <c r="G76">
+        <v>672</v>
+      </c>
+      <c r="H76">
+        <v>1024921</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/data/bikes_count.xlsx
+++ b/data/bikes_count.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11003"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11012"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/jkruppa.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1CCDFBF-BE83-F449-A7EF-C96816B44003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{023F106C-6B76-5244-8631-3A2CDD11CC8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1300" yWindow="4060" windowWidth="22780" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-100" yWindow="3460" windowWidth="22780" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -390,7 +390,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J76"/>
+  <dimension ref="A1:J77"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A62" zoomScale="159" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="J77" sqref="J77"/>
@@ -454,11 +454,11 @@
         <v>45551</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E76" si="1">B2-DATE(YEAR(B2),1,1)+1</f>
+        <f t="shared" ref="E2:E77" si="1">B2-DATE(YEAR(B2),1,1)+1</f>
         <v>260</v>
       </c>
       <c r="F2">
-        <f t="shared" ref="F2:F76" si="2">WEEKNUM(B2)</f>
+        <f t="shared" ref="F2:F77" si="2">WEEKNUM(B2)</f>
         <v>38</v>
       </c>
       <c r="G2">
@@ -2999,6 +2999,40 @@
       </c>
       <c r="J76">
         <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>2025</v>
+      </c>
+      <c r="B77" s="1">
+        <v>45946</v>
+      </c>
+      <c r="C77" s="2">
+        <v>0.34375</v>
+      </c>
+      <c r="D77" s="3">
+        <v>45946</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="1"/>
+        <v>289</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="G77">
+        <v>458</v>
+      </c>
+      <c r="H77">
+        <v>1045347</v>
+      </c>
+      <c r="I77">
+        <v>1</v>
+      </c>
+      <c r="J77">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/data/bikes_count.xlsx
+++ b/data/bikes_count.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11018"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/jkruppa.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{023F106C-6B76-5244-8631-3A2CDD11CC8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{342E72D5-2CCE-3842-9DD6-BCF77B5AE8B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-100" yWindow="3460" windowWidth="22780" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3460" windowWidth="22780" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -390,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J77"/>
+  <dimension ref="A1:J79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="159" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="J77" sqref="J77"/>
+    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="159" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -454,11 +454,11 @@
         <v>45551</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E77" si="1">B2-DATE(YEAR(B2),1,1)+1</f>
+        <f t="shared" ref="E2:E79" si="1">B2-DATE(YEAR(B2),1,1)+1</f>
         <v>260</v>
       </c>
       <c r="F2">
-        <f t="shared" ref="F2:F77" si="2">WEEKNUM(B2)</f>
+        <f t="shared" ref="F2:F79" si="2">WEEKNUM(B2)</f>
         <v>38</v>
       </c>
       <c r="G2">
@@ -3033,6 +3033,74 @@
       </c>
       <c r="J77">
         <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>2025</v>
+      </c>
+      <c r="B78" s="1">
+        <v>45952</v>
+      </c>
+      <c r="C78" s="2">
+        <v>0.33958333333333335</v>
+      </c>
+      <c r="D78" s="3">
+        <v>45952</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="1"/>
+        <v>295</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="2"/>
+        <v>43</v>
+      </c>
+      <c r="G78">
+        <v>474</v>
+      </c>
+      <c r="H78">
+        <v>1064971</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>2025</v>
+      </c>
+      <c r="B79" s="1">
+        <v>45954</v>
+      </c>
+      <c r="C79" s="2">
+        <v>0.38124999999999998</v>
+      </c>
+      <c r="D79" s="3">
+        <v>45954</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="1"/>
+        <v>297</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="2"/>
+        <v>43</v>
+      </c>
+      <c r="G79">
+        <v>459</v>
+      </c>
+      <c r="H79">
+        <v>1071789</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/data/bikes_count.xlsx
+++ b/data/bikes_count.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11018"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/jkruppa.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{342E72D5-2CCE-3842-9DD6-BCF77B5AE8B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4427C721-C3F1-D64B-AFA8-931118317A54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="3460" windowWidth="22780" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -390,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J79"/>
+  <dimension ref="A1:J82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="159" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C77" sqref="C77"/>
+    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="159" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="J83" sqref="J83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -454,11 +454,11 @@
         <v>45551</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E79" si="1">B2-DATE(YEAR(B2),1,1)+1</f>
+        <f t="shared" ref="E2:E82" si="1">B2-DATE(YEAR(B2),1,1)+1</f>
         <v>260</v>
       </c>
       <c r="F2">
-        <f t="shared" ref="F2:F79" si="2">WEEKNUM(B2)</f>
+        <f t="shared" ref="F2:F82" si="2">WEEKNUM(B2)</f>
         <v>38</v>
       </c>
       <c r="G2">
@@ -3101,6 +3101,108 @@
       </c>
       <c r="J79">
         <v>11</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>2025</v>
+      </c>
+      <c r="B80" s="1">
+        <v>45959</v>
+      </c>
+      <c r="C80" s="2">
+        <v>0.6069444444444444</v>
+      </c>
+      <c r="D80" s="3">
+        <v>45959</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="1"/>
+        <v>302</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="G80">
+        <v>2423</v>
+      </c>
+      <c r="H80">
+        <v>1087757</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>2025</v>
+      </c>
+      <c r="B81" s="1">
+        <v>45964</v>
+      </c>
+      <c r="C81" s="2">
+        <v>0.34513888888888888</v>
+      </c>
+      <c r="D81" s="3">
+        <v>45964</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="1"/>
+        <v>307</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="G81">
+        <v>730</v>
+      </c>
+      <c r="H81">
+        <v>1102181</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>2025</v>
+      </c>
+      <c r="B82" s="1">
+        <v>45965</v>
+      </c>
+      <c r="C82" s="2">
+        <v>0.65625</v>
+      </c>
+      <c r="D82" s="3">
+        <v>45965</v>
+      </c>
+      <c r="E82">
+        <f t="shared" si="1"/>
+        <v>308</v>
+      </c>
+      <c r="F82">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="G82">
+        <v>3032</v>
+      </c>
+      <c r="H82">
+        <v>1109169</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/data/bikes_count.xlsx
+++ b/data/bikes_count.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11109"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/jkruppa.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4427C721-C3F1-D64B-AFA8-931118317A54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF34ABAA-0C90-574C-BAD8-2111652CDFBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="3460" windowWidth="22780" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -390,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J82"/>
+  <dimension ref="A1:J83"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A68" zoomScale="159" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="J83" sqref="J83"/>
+      <selection activeCell="H86" sqref="H86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -454,11 +454,11 @@
         <v>45551</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E82" si="1">B2-DATE(YEAR(B2),1,1)+1</f>
+        <f t="shared" ref="E2:E83" si="1">B2-DATE(YEAR(B2),1,1)+1</f>
         <v>260</v>
       </c>
       <c r="F2">
-        <f t="shared" ref="F2:F82" si="2">WEEKNUM(B2)</f>
+        <f t="shared" ref="F2:F83" si="2">WEEKNUM(B2)</f>
         <v>38</v>
       </c>
       <c r="G2">
@@ -3203,6 +3203,40 @@
       </c>
       <c r="J82">
         <v>15</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>2025</v>
+      </c>
+      <c r="B83" s="1">
+        <v>45972</v>
+      </c>
+      <c r="C83" s="2">
+        <v>0.34513888888888888</v>
+      </c>
+      <c r="D83" s="3">
+        <v>45972</v>
+      </c>
+      <c r="E83">
+        <f t="shared" si="1"/>
+        <v>315</v>
+      </c>
+      <c r="F83">
+        <f t="shared" si="2"/>
+        <v>46</v>
+      </c>
+      <c r="G83">
+        <v>699</v>
+      </c>
+      <c r="H83">
+        <v>1137009</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/data/bikes_count.xlsx
+++ b/data/bikes_count.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/jkruppa.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF34ABAA-0C90-574C-BAD8-2111652CDFBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F61C9B72-6C66-7F49-BD73-B823B3A30582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="3460" windowWidth="22780" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -390,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J83"/>
+  <dimension ref="A1:J85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="159" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H86" sqref="H86"/>
+    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="159" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="K84" sqref="K84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -454,11 +454,11 @@
         <v>45551</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E83" si="1">B2-DATE(YEAR(B2),1,1)+1</f>
+        <f t="shared" ref="E2:E85" si="1">B2-DATE(YEAR(B2),1,1)+1</f>
         <v>260</v>
       </c>
       <c r="F2">
-        <f t="shared" ref="F2:F83" si="2">WEEKNUM(B2)</f>
+        <f t="shared" ref="F2:F85" si="2">WEEKNUM(B2)</f>
         <v>38</v>
       </c>
       <c r="G2">
@@ -3237,6 +3237,74 @@
       </c>
       <c r="J83">
         <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>2025</v>
+      </c>
+      <c r="B84" s="1">
+        <v>45975</v>
+      </c>
+      <c r="C84" s="2">
+        <v>0.34375</v>
+      </c>
+      <c r="D84" s="3">
+        <v>45975</v>
+      </c>
+      <c r="E84">
+        <f t="shared" si="1"/>
+        <v>318</v>
+      </c>
+      <c r="F84">
+        <f t="shared" si="2"/>
+        <v>46</v>
+      </c>
+      <c r="G84">
+        <v>560</v>
+      </c>
+      <c r="H84">
+        <v>1151969</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>2025</v>
+      </c>
+      <c r="B85" s="1">
+        <v>45981</v>
+      </c>
+      <c r="C85" s="2">
+        <v>0.34375</v>
+      </c>
+      <c r="D85" s="3">
+        <v>45981</v>
+      </c>
+      <c r="E85">
+        <f t="shared" si="1"/>
+        <v>324</v>
+      </c>
+      <c r="F85">
+        <f t="shared" si="2"/>
+        <v>47</v>
+      </c>
+      <c r="G85">
+        <v>644</v>
+      </c>
+      <c r="H85">
+        <v>1172824</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
